--- a/biology/Botanique/Actinidiaceae/Actinidiaceae.xlsx
+++ b/biology/Botanique/Actinidiaceae/Actinidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Actinidiaceae (Actinidiacées) comprend 350 espèces réparties en 3 genres.
 Ce sont des arbres, des arbustes ou des lianes, originaires d'Asie du Sud-Est et du nord de l'Australie.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Actinidia, dérivé du grec ακτιϛ, ακτινοϛ  / aktis, aktinos', qui signifie « rayon », en référence aux styles des fleurs femelles se déployant comme les rayons d'une roue[1]. Le nom d'Actinidia a été donné en premier par le botaniste français Jules Emile Planchon en 1847[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Actinidia, dérivé du grec ακτιϛ, ακτινοϛ  / aktis, aktinos', qui signifie « rayon », en référence aux styles des fleurs femelles se déployant comme les rayons d'une roue. Le nom d'Actinidia a été donné en premier par le botaniste français Jules Emile Planchon en 1847.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe la famille des Actinidiaceae dans l'ordre des Ericales.
 </t>
@@ -575,13 +591,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[3], NCBI  (12 nov. 2015)[4] et DELTA Angio           (12 nov. 2015)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), NCBI  (12 nov. 2015) et DELTA Angio           (12 nov. 2015) :
 Actinidia
 Clematoclethra (en)
 Saurauia
-Selon ITIS      (12 nov. 2015)[6] :
+Selon ITIS      (12 nov. 2015) :
 Actinidia Lindl.</t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (25 juin 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (25 juin 2010) :
 genre Actinidia
 Actinidia arguta
 Actinidia arisanensis
